--- a/sail-version-1.0/test/test_data/testData.xlsx
+++ b/sail-version-1.0/test/test_data/testData.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Documents\Web Dev\Sail\sail-version-1.0\test\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="64">
   <si>
     <t>ObjectId("5283e32d03649c00127432d7")</t>
   </si>
@@ -27,9 +27,6 @@
     <t>"Cash"</t>
   </si>
   <si>
-    <t xml:space="preserve">{"value": </t>
-  </si>
-  <si>
     <t xml:space="preserve">,"assetclass": </t>
   </si>
   <si>
@@ -54,47 +51,173 @@
     <t>"Apple"</t>
   </si>
   <si>
+    <t xml:space="preserve">,"symbol": </t>
+  </si>
+  <si>
+    <t>"AAPL"</t>
+  </si>
+  <si>
+    <t>"GOOG"</t>
+  </si>
+  <si>
+    <t>"BP"</t>
+  </si>
+  <si>
+    <t>"HBC"</t>
+  </si>
+  <si>
+    <t>"HSBC"</t>
+  </si>
+  <si>
+    <t>"Commodities"</t>
+  </si>
+  <si>
+    <t>"Collectibles"</t>
+  </si>
+  <si>
+    <t>"Ferrari GTO"</t>
+  </si>
+  <si>
+    <t>"Bank Account"</t>
+  </si>
+  <si>
+    <t>"Gold"</t>
+  </si>
+  <si>
+    <t>"Property"</t>
+  </si>
+  <si>
+    <t>"My house"</t>
+  </si>
+  <si>
+    <t>"Bonds"</t>
+  </si>
+  <si>
+    <t>"3 Year bond"</t>
+  </si>
+  <si>
+    <t>"10 Year bond"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,"value": </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"_id": </t>
+  </si>
+  <si>
+    <t xml:space="preserve">,"quantity": </t>
+  </si>
+  <si>
+    <t>ObjectId("5283e02d03649c00127432d7")</t>
+  </si>
+  <si>
+    <t>ObjectId("5283e32d03689c00127432d7")</t>
+  </si>
+  <si>
+    <t>ObjectId("5283e32d03649c00117432d7")</t>
+  </si>
+  <si>
+    <t>ObjectId("5283e32d03639c00127432d7")</t>
+  </si>
+  <si>
+    <t>ObjectId("5283e32d03649c00127232d7")</t>
+  </si>
+  <si>
+    <t>ObjectId("5283e32d03649c00127432d1")</t>
+  </si>
+  <si>
+    <t>ObjectId("5283e32d03649c00127433d7")</t>
+  </si>
+  <si>
+    <t>ObjectId("5283e32d03649c00127532d7")</t>
+  </si>
+  <si>
+    <t>ObjectId("5213e32d03649c00127432d7")</t>
+  </si>
+  <si>
+    <t>ObjectId("5283e67d03649c00127432d7")</t>
+  </si>
+  <si>
+    <t>ObjectId("5283e32d03649c02127432d7")</t>
+  </si>
+  <si>
+    <t>ObjectId("5283e32d03649c70127432d7")</t>
+  </si>
+  <si>
+    <t>Invesments</t>
+  </si>
+  <si>
+    <t>Investment History</t>
+  </si>
+  <si>
     <t xml:space="preserve">{"quantity": </t>
   </si>
   <si>
-    <t xml:space="preserve">,"symbol": </t>
-  </si>
-  <si>
-    <t>"AAPL"</t>
-  </si>
-  <si>
-    <t>"GOOG"</t>
-  </si>
-  <si>
-    <t>"BP"</t>
-  </si>
-  <si>
-    <t>"HBC"</t>
-  </si>
-  <si>
-    <t>"HSBC"</t>
-  </si>
-  <si>
-    <t>"Commodities"</t>
-  </si>
-  <si>
-    <t>"Collectibles"</t>
-  </si>
-  <si>
-    <t>"Ferrari GTO"</t>
-  </si>
-  <si>
-    <t>"Bank Account"</t>
-  </si>
-  <si>
-    <t>"Gold"</t>
+    <t xml:space="preserve">,"date": </t>
+  </si>
+  <si>
+    <t xml:space="preserve">,"investment": </t>
+  </si>
+  <si>
+    <t>{"value":</t>
+  </si>
+  <si>
+    <t>,"value":</t>
+  </si>
+  <si>
+    <t>{"$date":1381872794000}</t>
+  </si>
+  <si>
+    <t>{"$date":1382733194000}</t>
+  </si>
+  <si>
+    <t>{"$date":1384291994000}</t>
+  </si>
+  <si>
+    <t>{"$date":1384205594000}</t>
+  </si>
+  <si>
+    <t>{"$date":1371328380000}</t>
+  </si>
+  <si>
+    <t>{"$date":1318537980000}</t>
+  </si>
+  <si>
+    <t>{"$date":1350333194000}</t>
+  </si>
+  <si>
+    <t>{"$date":1355607180000}</t>
+  </si>
+  <si>
+    <t>{"$date":1376598794000}</t>
+  </si>
+  <si>
+    <t>{"$date":1379277194000}</t>
+  </si>
+  <si>
+    <t>{"$date":1381609994000}</t>
+  </si>
+  <si>
+    <t>{"$date":1381869194000}</t>
+  </si>
+  <si>
+    <t>{"$date":1321392794000}</t>
+  </si>
+  <si>
+    <t>{"$date":1318537994000}</t>
+  </si>
+  <si>
+    <t>"Google"</t>
+  </si>
+  <si>
+    <t>,"valuechanged":</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +242,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -186,8 +324,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -238,6 +378,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -563,322 +711,1482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
+    <col min="8" max="8" width="36.125" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>5000.43</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="B1">
-        <v>5000.43</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="str">
+        <f>CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3)</f>
+        <v>{"_id": ObjectId("5283e32d03649c70127432d7"),"value": 5000.43,"assetclass": "Bank Account","name": "Cash","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>23334.23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="str">
-        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1)</f>
-        <v>{"value": 5000.43,"assetclass": "Bank Account","name": "Cash","user": ObjectId("5283e32d03649c00127432d7")}</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="str">
+        <f>CONCATENATE(A4,B4,C4,D4,E4,F4,G4,H4,I4,J4,K4)</f>
+        <v>{"_id": ObjectId("5283e32d03649c02127432d7"),"value": 23334.23,"assetclass": "Bank Account","name": "Current Account","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>100.35</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>23334.23</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J3" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2)</f>
-        <v>{"value": 23334.23,"assetclass": "Bank Account","name": "Current Account","user": ObjectId("5283e32d03649c00127432d7")}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>100.35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value": 100.35,"assetclass": "Bank Account","name": "Credit Card","user": ObjectId("5283e32d03649c00127432d7")}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" t="str">
         <f>CONCATENATE(A5,B5,C5,D5,E5,F5,G5,H5,I5,J5,K5)</f>
-        <v>{"quantity": 200,"assetclass": "Shares","name": "Apple","symbol": "AAPL","user": ObjectId("5283e32d03649c00127432d7")}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+        <v>{"_id": ObjectId("5283e67d03649c00127432d7"),"value": 100.35,"assetclass": "Bank Account","name": "Credit Card","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" t="str">
+        <f>CONCATENATE(A7,B7,C7,D7,E7,F7,G7,H7,I7,J7,K7,L7,M7)</f>
+        <v>{"_id": ObjectId("5213e32d03649c00127432d7"),"quantity": 200,"assetclass": "Shares","name": "Apple","symbol": "AAPL","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" t="str">
+        <f>CONCATENATE(A8,B8,C8,D8,E8,F8,G8,H8,I8,J8,K8,L8,M8)</f>
+        <v>{"_id": ObjectId("5283e32d03649c00127532d7"),"quantity": 10,"assetclass": "Shares","name": "Google","symbol": "GOOG","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" t="str">
+        <f>CONCATENATE(A9,B9,C9,D9,E9,F9,G9,H9,I9,J9,K9,L9,M9)</f>
+        <v>{"_id": ObjectId("5283e32d03649c00127433d7"),"quantity": 15,"assetclass": "Shares","name": "BP","symbol": "BP","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>203</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" ref="L6:L8" si="1">CONCATENATE(A6,B6,C6,D6,E6,F6,G6,H6,I6,J6,K6)</f>
-        <v>{"quantity": 10,"assetclass": "Shares","symbol": "GOOG","user": ObjectId("5283e32d03649c00127432d7")}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" t="str">
+        <f>CONCATENATE(A10,B10,C10,D10,E10,F10,G10,H10,I10,J10,K10,L10,M10)</f>
+        <v>{"_id": ObjectId("5283e32d03649c00127432d1"),"quantity": 203,"assetclass": "Shares","name": "HSBC","symbol": "HBC","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>500000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" t="str">
+        <f>CONCATENATE(A12,B12,C12,D12,E12,F12,G12,H12,I12,J12,K12)</f>
+        <v>{"_id": ObjectId("5283e32d03649c00127232d7"),"value": 500000,"assetclass": "Collectibles","name": "Ferrari GTO","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>500000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" t="str">
+        <f>CONCATENATE(A14,B14,C14,D14,E14,F14,G14,H14,I14,J14,K14)</f>
+        <v>{"_id": ObjectId("5283e32d03639c00127432d7"),"value": 500000,"assetclass": "Commodities","name": "Gold","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>2300000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="str">
+        <f>CONCATENATE(A16,B16,C16,D16,E16,F16,G16,H16,I16,J16,K16)</f>
+        <v>{"_id": ObjectId("5283e32d03649c00117432d7"),"value": 2300000,"assetclass": "Property","name": "My house","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="str">
+        <f>CONCATENATE(A17,B17,C17,D17,E17,F17,G17,H17,I17,J17,K17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" t="str">
+        <f>CONCATENATE(A18,B18,C18,D18,E18,F18,G18,H18,I18,J18,K18)</f>
+        <v>{"_id": ObjectId("5283e32d03689c00127432d7"),"value": 2000,"assetclass": "Bonds","name": "3 Year bond","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>15000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="str">
+        <f>CONCATENATE(A19,B19,C19,D19,E19,F19,G19,H19,I19,J19,K19)</f>
+        <v>{"_id": ObjectId("5283e02d03649c00127432d7"),"value": 15000,"assetclass": "Bonds","name": "10 Year bond","user": ObjectId("5283e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>4000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>4000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" t="str">
+        <f>CONCATENATE(A23,B23,C23,D23,E23,F23,G23,H23,I23,J23,K23)</f>
+        <v>{"value":4000,"valuechanged":4000,"date": {"$date":1381872794000},"investment": ObjectId("5283e32d03649c70127432d7")}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>4010</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" ref="L24:L53" si="0">CONCATENATE(A24,B24,C24,D24,E24,F24,G24,H24,I24,J24,K24)</f>
+        <v>{"value":4010,"valuechanged":10,"date": {"$date":1382733194000},"investment": ObjectId("5283e32d03649c70127432d7")}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>20000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>20000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":20000,"valuechanged":20000,"date": {"$date":1384291994000},"investment": ObjectId("5283e32d03649c02127432d7")}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>21000.25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>1000.25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":21000.25,"valuechanged":1000.25,"date": {"$date":1384205594000},"investment": ObjectId("5283e32d03649c02127432d7")}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>200.32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>200.32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":200.32,"valuechanged":200.32,"date": {"$date":1371328380000},"investment": ObjectId("5283e67d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>50000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>{"quantity": 100,"value":50000,"valuechanged":0,"date": {"$date":1318537980000},"investment": ObjectId("5213e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30">
+        <v>100000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30">
+        <v>50000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>{"quantity": 200,"value":100000,"valuechanged":50000,"date": {"$date":1350333194000},"investment": ObjectId("5213e32d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v>{"quantity": 10,"value":100,"valuechanged":0,"date": {"$date":1355607180000},"investment": ObjectId("5283e32d03649c00127532d7")}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v>{"quantity": 15,"value":150,"valuechanged":50,"date": {"$date":1376598794000},"investment": ObjectId("5283e32d03649c00127532d7")}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v>{"quantity": 20,"value":200,"valuechanged":50,"date": {"$date":1379277194000},"investment": ObjectId("5283e32d03649c00127532d7")}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>1500.25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
-        <v>{"quantity": 15,"assetclass": "Shares","symbol": "BP","user": ObjectId("5283e32d03649c00127432d7")}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>203</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v>{"quantity": 12,"value":1500.25,"valuechanged":0,"date": {"$date":1381609994000},"investment": ObjectId("5283e32d03649c00127433d7")}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>1299.25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35">
+        <f>D35-D34</f>
+        <v>-201</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v>{"quantity": 14,"value":1299.25,"valuechanged":-201,"date": {"$date":1381869194000},"investment": ObjectId("5283e32d03649c00127433d7")}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>500</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36">
+        <v>50000.52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v>{"quantity": 203,"assetclass": "Shares","name": "HSBC","symbol": "HBC","user": ObjectId("5283e32d03649c00127432d7")}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="0"/>
+        <v>{"quantity": 500,"value":50000.52,"valuechanged":0,"date": {"$date":1321392794000},"investment": ObjectId("5283e32d03649c00127432d1")}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>250</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <v>20152</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37">
+        <f>D37-D36</f>
+        <v>-29848.519999999997</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="0"/>
+        <v>{"quantity": 250,"value":20152,"valuechanged":-29848.52,"date": {"$date":1350333194000},"investment": ObjectId("5283e32d03649c00127432d1")}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>240</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38">
+        <v>19000</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38">
+        <f>D38-D37</f>
+        <v>-1152</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="0"/>
+        <v>{"quantity": 240,"value":19000,"valuechanged":-1152,"date": {"$date":1381869194000},"investment": ObjectId("5283e32d03649c00127432d1")}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>400000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40">
+        <v>400000</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":400000,"valuechanged":400000,"date": {"$date":1318537994000},"investment": ObjectId("5283e32d03649c00127232d7")}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>500000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>100000</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":500000,"valuechanged":100000,"date": {"$date":1350333194000},"investment": ObjectId("5283e32d03649c00127232d7")}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>490000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43">
+        <v>490000</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":490000,"valuechanged":490000,"date": {"$date":1318537994000},"investment": ObjectId("5283e32d03639c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>495000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44">
+        <v>5000</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":495000,"valuechanged":5000,"date": {"$date":1350333194000},"investment": ObjectId("5283e32d03639c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>497000</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45">
+        <v>2000</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":497000,"valuechanged":2000,"date": {"$date":1381869194000},"investment": ObjectId("5283e32d03639c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1900000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>1900000</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":1900000,"valuechanged":1900000,"date": {"$date":1318537994000},"investment": ObjectId("5283e32d03649c00117432d7")}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2000000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48">
+        <v>100000</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":2000000,"valuechanged":100000,"date": {"$date":1350333194000},"investment": ObjectId("5283e32d03649c00117432d7")}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>2100000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49">
+        <v>100000</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":2100000,"valuechanged":100000,"date": {"$date":1381869194000},"investment": ObjectId("5283e32d03649c00117432d7")}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>1950</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <v>1950</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":1950,"valuechanged":1950,"date": {"$date":1318537994000},"investment": ObjectId("5283e32d03689c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>1957</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>500000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>500000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":1957,"valuechanged":2,"date": {"$date":1350333194000},"investment": ObjectId("5283e02d03649c00127432d7")}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <v>14000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>14000</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":14000,"valuechanged":14000,"date": {"$date":1318537994000},"investment": ObjectId("5283e02d03649c00127432d7")}</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>